--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2062.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2062.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165652780610946</v>
+        <v>0.7142412066459656</v>
       </c>
       <c r="B1">
-        <v>2.821258225514604</v>
+        <v>3.587246179580688</v>
       </c>
       <c r="C1">
-        <v>4.731463107278476</v>
+        <v>4.299013137817383</v>
       </c>
       <c r="D1">
-        <v>2.954970064168783</v>
+        <v>2.624518871307373</v>
       </c>
       <c r="E1">
-        <v>1.206021882700728</v>
+        <v>1.058185338973999</v>
       </c>
     </row>
   </sheetData>
